--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1416072.356722438</v>
+        <v>-1419088.156372445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>299.292626352956</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>214.8951574526938</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2406043036214</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.633197650125</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>65.51651982872606</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>191.9774388238391</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>330.2468901668017</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18.83872631691469</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.308506974836414</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>86.88462298447445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.379365943144</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7268717888065</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>127.5940489889907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>19.48923120239058</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>134.4415385849329</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>32.52207646038632</v>
       </c>
       <c r="V19" t="n">
-        <v>43.2947710063324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>80.00124118081804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>14.20188851094889</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>29.31250252463317</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>103.780257294551</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038643</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.645519427256</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.683002486844</v>
+        <v>726.7905576289616</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.683002486844</v>
+        <v>424.4747734340565</v>
       </c>
       <c r="E2" t="n">
-        <v>1160.683002486844</v>
+        <v>424.4747734340565</v>
       </c>
       <c r="F2" t="n">
-        <v>749.6970976972368</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>470.6661842592354</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>143.4714642952382</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.245359491378</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.506187451444</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.506187451444</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.506187451444</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1139.506187451444</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>728.5202826618367</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>613.6976369609572</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>452.1066017194595</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>93.84090311270904</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2687.746558720408</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2687.746558720408</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2687.746558720408</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2433.984773358499</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.921886014929</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1750.153230744814</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694736</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694736</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D10" t="n">
-        <v>288.5951747571379</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5027,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.5976972681534</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5976972681534</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7497938310272</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7497938310272</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7497938310272</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>241.7497938310272</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5236,13 +5236,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>780.3902764116835</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>780.3902764116835</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.5976972681534</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,13 +5264,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,49 +5279,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>673.3827746590096</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="C16" t="n">
-        <v>673.3827746590096</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="D16" t="n">
-        <v>653.6966825353827</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>231.3605683725691</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5452,34 +5452,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104705</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570269</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590096</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590096</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3496.417082105037</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3999.389552984374</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4394.163919341552</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.9597618327374</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C19" t="n">
-        <v>784.0235789048305</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V19" t="n">
-        <v>1401.741891874285</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W19" t="n">
-        <v>1401.741891874285</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X19" t="n">
-        <v>1173.752340976268</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y19" t="n">
-        <v>952.9597618327374</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,25 +5753,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1734.57685067423</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.767516148151</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888619</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.8310435707792</v>
+        <v>278.8425593065527</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8948606428723</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851287</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.261638442566</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2720875445491</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.479508401019</v>
+        <v>460.4910241367925</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048574</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>594.8179559048574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>447.928008406947</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>280.731909121827</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6610,10 +6610,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6944,19 +6944,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,13 +7309,13 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,16 +7570,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382519</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>37.1365111780442</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>5.284192235662317</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>11.64153443578934</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>229.1155640189926</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>-2.243354900368079e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.856781566071797e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-2.243354900368079e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>55.39041526772694</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>63.29811859473624</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.02814312551430476</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>158.9289493476003</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>129.1262418158218</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10.31347632938784</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>253.6897617452266</v>
       </c>
       <c r="V19" t="n">
-        <v>208.8428723174956</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>206.5217571557729</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>132.2320741356203</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>257.2104958119578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>36.5144555516729</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="E2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="F2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="G2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="H2" t="n">
         <v>138978.6254104441</v>
@@ -26341,7 +26341,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735915</v>
+        <v>376527.1335735917</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26418,16 @@
         <v>139117.6974810172</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
@@ -26439,16 +26439,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>4457.648636658129</v>
+        <v>4457.648636658118</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975162</v>
+        <v>12448.50789975157</v>
       </c>
       <c r="L4" t="n">
         <v>12448.50789975159</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975158</v>
       </c>
       <c r="N4" t="n">
         <v>12448.50789975159</v>
@@ -26457,7 +26457,7 @@
         <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975158</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684539.6632369095</v>
+        <v>-684772.1963541124</v>
       </c>
       <c r="C6" t="n">
         <v>-131383.3647295895</v>
       </c>
       <c r="D6" t="n">
-        <v>-131383.3647295895</v>
+        <v>-131383.3647295894</v>
       </c>
       <c r="E6" t="n">
-        <v>-706401.9148337682</v>
+        <v>-706469.110323994</v>
       </c>
       <c r="F6" t="n">
-        <v>20975.49915963854</v>
+        <v>20908.30366941274</v>
       </c>
       <c r="G6" t="n">
-        <v>20975.49915963858</v>
+        <v>20908.30366941274</v>
       </c>
       <c r="H6" t="n">
-        <v>20975.49915963857</v>
+        <v>20908.30366941276</v>
       </c>
       <c r="I6" t="n">
-        <v>20975.4991596386</v>
+        <v>20908.3036694128</v>
       </c>
       <c r="J6" t="n">
-        <v>-340856.6570884056</v>
+        <v>-340891.3950138416</v>
       </c>
       <c r="K6" t="n">
-        <v>8641.967978950866</v>
+        <v>8641.967978950997</v>
       </c>
       <c r="L6" t="n">
-        <v>28069.68597258261</v>
+        <v>28069.68597258267</v>
       </c>
       <c r="M6" t="n">
         <v>-101572.6288663621</v>
       </c>
       <c r="N6" t="n">
-        <v>28069.68597258267</v>
+        <v>28069.68597258272</v>
       </c>
       <c r="O6" t="n">
         <v>28069.68597258267</v>
       </c>
       <c r="P6" t="n">
-        <v>8641.967978950852</v>
+        <v>8641.96797895091</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492741</v>
+        <v>652.4826302492738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>191.9808882890176</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5435657171736</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>11.35916098709259</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>221.8067311969559</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>55.99104848925185</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>173.2359645635688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>363.0916437553471</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>45.16989559997531</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>59.54933966209472</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>46.90250829883371</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.343281041954469e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.8572963387063</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>362.8934092184356</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>435.8984973974161</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>460.8743066279945</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451118</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>262.4358392395088</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699244</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257248</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>737.1685649072117</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
